--- a/cluster_analysis.xlsx
+++ b/cluster_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学院\AMS\実験の課題\SNScorpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学院\博士論文\実験の課題\SNScorpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F668F37-6D52-41D5-8D23-153029CF2EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D05A06-3ABF-478E-AB18-2158CF53B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6336" yWindow="480" windowWidth="11148" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments_AMScluster" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1016">
   <si>
     <t>node</t>
   </si>
@@ -3083,13 +3083,17 @@
   </si>
   <si>
     <t>cluster</t>
+  </si>
+  <si>
+    <t>cluster_of_AMS</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3111,6 +3115,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3120,7 +3140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3143,14 +3163,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3456,7 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D971"/>
   <sheetViews>
-    <sheetView topLeftCell="A940" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14196,151 +14235,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>97</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.0618556701030931E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>151</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.324503311258278E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>115</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8.6956521739130436E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>67</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.492537313432836E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>117</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>56</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>155</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>1.935483870967742E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>66</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.515151515151515E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>146</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6.8493150684931503E-3</v>
       </c>
     </row>
@@ -14352,2389 +14424,2665 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>926</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>59</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>76</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>100.26378279672539</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>919</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>59</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>47</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>106</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>69.637128861260237</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>794</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>68.980872750441293</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>911</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>37</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>55.148384545888433</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>674</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>52.999901624995928</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>816</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>51.237353818482568</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>812</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>22</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>49.698132995760012</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>354</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>45.331413504899459</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>885</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>26</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>36</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>39.67746389087128</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>884</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>29</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>46</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>37.987720087724178</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>898</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>34</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>35</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>121.83964390750771</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>948</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>78</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>59</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>137</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>93.645022795334228</v>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>905</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>41</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>53</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>69.268705424413113</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>912</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>41</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>67.229473739106609</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>556</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>21</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>64.911891520524634</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>558</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>64.911891520524634</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>552</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>21</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>64.911891520524634</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>557</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>21</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>64.911891520524634</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>536</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>28</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>32</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>61.522288165414153</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>790</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>60.890448754468459</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>650</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>24</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>24</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>77.25301979683681</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>652</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>24</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>24</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>77.25301979683681</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>653</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>24</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>24</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>77.25301979683681</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>654</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>20</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>60.890448754468459</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>755</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26">
         <v>20</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>20</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>60.890448754468459</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>956</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27">
         <v>52</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>43</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>95</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>60.634785612109397</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>945</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28">
         <v>50</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>48</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>98</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>55.620280540022272</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>862</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29">
         <v>31</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>40</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>52.532467344006633</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>870</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30">
         <v>20</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>22</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>49.698132995760012</v>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>949</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31">
         <v>42</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>44</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>86</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>45.50048229456749</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>661</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>18</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>52.999901624995928</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>863</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>28</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>37</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>45.679670936280523</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>500</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34">
         <v>16</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>16</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>45.331413504899459</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>493</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35">
         <v>14</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>14</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>37.91270281543094</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>288</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>14</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>14</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>37.91270281543094</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>571</v>
       </c>
       <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37">
         <v>17</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
       <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>20</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>34.626992763437677</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>289</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38">
         <v>12</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>12</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>30.779392289538439</v>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>300</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>12</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>12</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>30.779392289538439</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>331</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40">
         <v>12</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>12</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>30.779392289538439</v>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>499</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41">
         <v>12</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>12</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>30.779392289538439</v>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>973</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42">
         <v>137</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>163</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>300</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>143.0248288992876</v>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>636</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43">
         <v>32</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>32</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>111.8882419669274</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>639</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44">
         <v>32</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>32</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>111.8882419669274</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>634</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45">
         <v>28</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>28</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>94.284283239621274</v>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>645</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46">
         <v>28</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>28</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>94.284283239621274</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>955</v>
       </c>
       <c r="B47">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>78</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>76</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>154</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>86.37298555367542</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>960</v>
       </c>
       <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>61</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>38</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>99</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>78.226080732206086</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>647</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>24</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>24</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>77.25301979683681</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>633</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50">
         <v>24</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>24</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>77.25301979683681</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>638</v>
       </c>
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51">
         <v>24</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>24</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>77.25301979683681</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>765</v>
       </c>
       <c r="B52">
         <v>14</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
+        <v>6</v>
+      </c>
+      <c r="D52">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>25</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>78.194316912515575</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>930</v>
       </c>
       <c r="B53">
         <v>14</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
+        <v>6</v>
+      </c>
+      <c r="D53">
         <v>47</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>28</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>75</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>61.218650468558288</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>549</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
+        <v>6</v>
+      </c>
+      <c r="D54">
         <v>18</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>18</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>52.999901624995928</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>913</v>
       </c>
       <c r="B55">
         <v>14</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
+        <v>6</v>
+      </c>
+      <c r="D55">
         <v>33</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>14</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>47</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>48.569945640415739</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>550</v>
       </c>
       <c r="B56">
         <v>14</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
+        <v>6</v>
+      </c>
+      <c r="D56">
         <v>15</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>15</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>41.588830833596717</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>555</v>
       </c>
       <c r="B57">
         <v>14</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
+        <v>6</v>
+      </c>
+      <c r="D57">
         <v>18</v>
       </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
       <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
         <v>21</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>37.429947750237041</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>868</v>
       </c>
       <c r="B58">
         <v>14</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
+        <v>6</v>
+      </c>
+      <c r="D58">
         <v>30</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>23</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>53</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>35.857173730715452</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>929</v>
       </c>
       <c r="B59">
         <v>14</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
+        <v>6</v>
+      </c>
+      <c r="D59">
         <v>33</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>39</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>72</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>34.5169623210287</v>
       </c>
-      <c r="G59" t="b">
+      <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>67</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>867</v>
       </c>
       <c r="B60">
         <v>14</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
+        <v>6</v>
+      </c>
+      <c r="D60">
         <v>23</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>12</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>35</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>31.40054189420734</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>410</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
+        <v>6</v>
+      </c>
+      <c r="D61">
         <v>12</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>30.779392289538439</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>972</v>
       </c>
       <c r="B62">
         <v>15</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
+        <v>7</v>
+      </c>
+      <c r="D62">
         <v>101</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>77</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>178</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>120.94327045377899</v>
       </c>
-      <c r="G62" t="b">
+      <c r="H62" t="b">
         <v>1</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>67</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>965</v>
       </c>
       <c r="B63">
         <v>15</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
+        <v>7</v>
+      </c>
+      <c r="D63">
         <v>78</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>47</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>125</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>101.1930562580648</v>
       </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>223</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
+        <v>7</v>
+      </c>
+      <c r="D64">
         <v>16</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
       <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>16</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>45.331413504899459</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>631</v>
       </c>
       <c r="B65">
         <v>15</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
+        <v>7</v>
+      </c>
+      <c r="D65">
         <v>21</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>25</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>41.601030846198249</v>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>787</v>
       </c>
       <c r="B66">
         <v>15</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+      <c r="D66">
         <v>30</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>15</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>45</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>41.588830833596717</v>
       </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>751</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
+        <v>7</v>
+      </c>
+      <c r="D67">
         <v>19</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
       <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
         <v>22</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>40.285007187801732</v>
       </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>598</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+      <c r="D68">
         <v>14</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>15</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>38.816242111356942</v>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>485</v>
       </c>
       <c r="B69">
         <v>15</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
+      <c r="D69">
         <v>14</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
       <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>14</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>37.91270281543094</v>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>677</v>
       </c>
       <c r="B70">
         <v>15</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
+        <v>7</v>
+      </c>
+      <c r="D70">
         <v>18</v>
       </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
       <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
         <v>21</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>37.429947750237041</v>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>702</v>
       </c>
       <c r="B71">
         <v>15</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
+        <v>7</v>
+      </c>
+      <c r="D71">
         <v>17</v>
       </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
       <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
         <v>20</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>34.626992763437677</v>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>942</v>
       </c>
       <c r="B72">
         <v>19</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
+        <v>8</v>
+      </c>
+      <c r="D72">
         <v>100</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
       <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>100</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>461.51205168412599</v>
       </c>
-      <c r="G72" t="b">
+      <c r="H72" t="b">
         <v>1</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>67</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>740</v>
       </c>
       <c r="B73">
         <v>19</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
+        <v>8</v>
+      </c>
+      <c r="D73">
         <v>40</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>40</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>148.5428826681723</v>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>738</v>
       </c>
       <c r="B74">
         <v>19</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
+        <v>8</v>
+      </c>
+      <c r="D74">
         <v>40</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
       <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <v>40</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>148.5428826681723</v>
       </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>737</v>
       </c>
       <c r="B75">
         <v>19</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
+        <v>8</v>
+      </c>
+      <c r="D75">
         <v>40</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
       <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>40</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>148.5428826681723</v>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>734</v>
       </c>
       <c r="B76">
         <v>19</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
+        <v>8</v>
+      </c>
+      <c r="D76">
         <v>40</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>40</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>148.5428826681723</v>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>742</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
+        <v>8</v>
+      </c>
+      <c r="D77">
         <v>40</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>40</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>148.5428826681723</v>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>902</v>
       </c>
       <c r="B78">
         <v>19</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
+        <v>8</v>
+      </c>
+      <c r="D78">
         <v>50</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>4</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>54</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>133.7074324713264</v>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>733</v>
       </c>
       <c r="B79">
         <v>19</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
+        <v>8</v>
+      </c>
+      <c r="D79">
         <v>35</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
       <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>35</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>125.4231628459638</v>
       </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>732</v>
       </c>
       <c r="B80">
         <v>19</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
+        <v>8</v>
+      </c>
+      <c r="D80">
         <v>35</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
       <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>35</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>125.4231628459638</v>
       </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>735</v>
       </c>
       <c r="B81">
         <v>19</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
+        <v>8</v>
+      </c>
+      <c r="D81">
         <v>35</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
       <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>35</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>125.4231628459638</v>
       </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>958</v>
       </c>
       <c r="B82">
         <v>21</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
+        <v>9</v>
+      </c>
+      <c r="D82">
         <v>72</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>34</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>106</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>101.9002966555063</v>
       </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>969</v>
       </c>
       <c r="B83">
         <v>21</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
+        <v>9</v>
+      </c>
+      <c r="D83">
         <v>73</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>53</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>126</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>88.847854137070229</v>
       </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>968</v>
       </c>
       <c r="B84">
         <v>21</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
+        <v>9</v>
+      </c>
+      <c r="D84">
         <v>70</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>46</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>116</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>88.126845712030232</v>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>689</v>
       </c>
       <c r="B85">
         <v>21</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
+        <v>9</v>
+      </c>
+      <c r="D85">
         <v>26</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
       <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>26</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>85.691758516112557</v>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>819</v>
       </c>
       <c r="B86">
         <v>21</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
+        <v>9</v>
+      </c>
+      <c r="D86">
         <v>32</v>
       </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
       <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
         <v>35</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>81.247163873864835</v>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>641</v>
       </c>
       <c r="B87">
         <v>21</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
+        <v>9</v>
+      </c>
+      <c r="D87">
         <v>24</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
       <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>24</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>77.25301979683681</v>
       </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>648</v>
       </c>
       <c r="B88">
         <v>21</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
+        <v>9</v>
+      </c>
+      <c r="D88">
         <v>24</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
       <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>24</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>77.25301979683681</v>
       </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>656</v>
       </c>
       <c r="B89">
         <v>21</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
+        <v>9</v>
+      </c>
+      <c r="D89">
         <v>20</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
       <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>20</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>60.890448754468459</v>
       </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>678</v>
       </c>
       <c r="B90">
         <v>21</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
+        <v>9</v>
+      </c>
+      <c r="D90">
         <v>18</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
       <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>18</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>52.999901624995928</v>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>791</v>
       </c>
       <c r="B91">
         <v>21</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
+        <v>9</v>
+      </c>
+      <c r="D91">
         <v>20</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>2</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>22</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>49.698132995760012</v>
       </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91">
         <v>10</v>
       </c>
     </row>
@@ -16746,274 +17094,305 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>1002</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>985</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1006</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>155</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
         <v>1.935483870967742E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>997</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>986</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1007</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>151</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.324503311258278E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>1004</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>987</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1005</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>146</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.8493150684931503E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>1000</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>988</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1005</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>117</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>998</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>989</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1008</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>115</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8.6956521739130436E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>996</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>990</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1005</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>97</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.0618556701030931E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>999</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>991</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1005</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>67</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.492537313432836E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>1003</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>992</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1007</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>66</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.515151515151515E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>1001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>993</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1007</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>56</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -17025,91 +17404,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EC37DE-0CCE-4387-8666-6823ABE03BA5}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>601</v>
       </c>
     </row>
